--- a/xls/NotPortfolio_20180807.xlsx
+++ b/xls/NotPortfolio_20180807.xlsx
@@ -7,15 +7,17 @@
     <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="13740"/>
   </bookViews>
   <sheets>
-    <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL Statement" sheetId="2" r:id="rId2"/>
+    <sheet name="Импорт свзяанных сущеностей" sheetId="3" r:id="rId1"/>
+    <sheet name="НетПенс.соглашения" sheetId="4" r:id="rId2"/>
+    <sheet name="НетПортфолио" sheetId="1" r:id="rId3"/>
+    <sheet name="SQLНетПортфолио" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="22">
   <si>
     <t>SSYLKA_FL</t>
   </si>
@@ -52,6 +54,42 @@
 and    tpp.date_nach_vypl(+) = tpa.date_nach_vypl
 and    tpp.ssylka_fl(+) = tpa.ssylka_fl
 and    tpa.fk_contract is not null</t>
+  </si>
+  <si>
+    <t>Таблица</t>
+  </si>
+  <si>
+    <t>Импортировано</t>
+  </si>
+  <si>
+    <t>Пропущено</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>PENSION_AGREEMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCOUNTS          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAY_PORTFOLIOS    </t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>FND_DATA_NACH_VYPL</t>
+  </si>
+  <si>
+    <t>PA_EFFECTIVE_DATE</t>
+  </si>
+  <si>
+    <t>SP_PEN_DOG</t>
+  </si>
+  <si>
+    <t>Нет базового контракта</t>
   </si>
 </sst>
 </file>
@@ -108,7 +146,43 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -169,17 +243,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:H394" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Таблица"/>
+    <tableColumn id="2" name="Импортировано"/>
+    <tableColumn id="3" name="Пропущено"/>
+    <tableColumn id="4" name="Всего">
+      <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица14" displayName="Таблица14" ref="A1:H9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H9"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="SSYLKA_FL"/>
+    <tableColumn id="2" name="FK_CONTRAGENT"/>
+    <tableColumn id="3" name="FK_BASE_CONTRACT"/>
+    <tableColumn id="4" name="FK_CONTRACT"/>
+    <tableColumn id="5" name="SOURCE_TABLE"/>
+    <tableColumn id="6" name="COMMENTS"/>
+    <tableColumn id="7" name="FND_DATA_NACH_VYPL" dataDxfId="1"/>
+    <tableColumn id="8" name="PA_EFFECTIVE_DATE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:H394" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:H394"/>
   <tableColumns count="8">
     <tableColumn id="1" name="SSYLKA_FL"/>
-    <tableColumn id="2" name="DATE_NACH_VYPL" dataDxfId="2"/>
+    <tableColumn id="2" name="DATE_NACH_VYPL" dataDxfId="4"/>
     <tableColumn id="3" name="FK_BASE_CONTRACT"/>
     <tableColumn id="4" name="FK_CONTRAGENT"/>
     <tableColumn id="5" name="REF_KODINSZ"/>
     <tableColumn id="6" name="FK_CONTRACT"/>
     <tableColumn id="7" name="SOURCE_TABLE"/>
-    <tableColumn id="8" name="DATA_ARH" dataDxfId="1"/>
+    <tableColumn id="8" name="DATA_ARH" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -470,9 +576,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2963</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>196844</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>B3+C3</f>
+        <v>196844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>2570</v>
+      </c>
+      <c r="C4">
+        <v>393</v>
+      </c>
+      <c r="D4">
+        <f>B4+C4</f>
+        <v>2963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2931402</v>
+      </c>
+      <c r="C2">
+        <v>2586771</v>
+      </c>
+      <c r="D2">
+        <v>2780724</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>37043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3004148</v>
+      </c>
+      <c r="C3">
+        <v>2586780</v>
+      </c>
+      <c r="D3">
+        <v>2779956</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1">
+        <v>37131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>265</v>
+      </c>
+      <c r="B4">
+        <v>2890572</v>
+      </c>
+      <c r="C4">
+        <v>2587685</v>
+      </c>
+      <c r="D4">
+        <v>2777205</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>36644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4608</v>
+      </c>
+      <c r="B5">
+        <v>3037618</v>
+      </c>
+      <c r="C5">
+        <v>2590029</v>
+      </c>
+      <c r="D5">
+        <v>2770442</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1">
+        <v>36035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4617</v>
+      </c>
+      <c r="B6">
+        <v>2896017</v>
+      </c>
+      <c r="C6">
+        <v>2590038</v>
+      </c>
+      <c r="D6">
+        <v>2780044</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1">
+        <v>37392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>18903</v>
+      </c>
+      <c r="B7">
+        <v>3024523</v>
+      </c>
+      <c r="C7">
+        <v>2606272</v>
+      </c>
+      <c r="D7">
+        <v>2773110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>36192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>37335</v>
+      </c>
+      <c r="B8">
+        <v>2921701</v>
+      </c>
+      <c r="C8">
+        <v>2622194</v>
+      </c>
+      <c r="D8">
+        <v>2779779</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>36342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>38828</v>
+      </c>
+      <c r="B9">
+        <v>3048480</v>
+      </c>
+      <c r="C9">
+        <v>2629154</v>
+      </c>
+      <c r="D9">
+        <v>2781615</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1">
+        <v>37010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -10741,7 +11166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
